--- a/Base/Data/Inputs/Meas_vs_sim_data.xlsx
+++ b/Base/Data/Inputs/Meas_vs_sim_data.xlsx
@@ -830,7 +830,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="176">
   <si>
     <t>Red: Don't change the name without changing the Julia code</t>
   </si>
@@ -1306,9 +1306,6 @@
     <t>RN-SARAH</t>
   </si>
   <si>
-    <t>Torino2020</t>
-  </si>
-  <si>
     <t>Utrecht2015</t>
   </si>
   <si>
@@ -1322,9 +1319,6 @@
   </si>
   <si>
     <t>Utrecht2014</t>
-  </si>
-  <si>
-    <t>Torino2019</t>
   </si>
   <si>
     <t>Almeria2023</t>
@@ -1355,6 +1349,15 @@
   </si>
   <si>
     <t>R_msvssim_sens</t>
+  </si>
+  <si>
+    <t>Turin</t>
+  </si>
+  <si>
+    <t>Turin2019</t>
+  </si>
+  <si>
+    <t>Turin2020</t>
   </si>
 </sst>
 </file>
@@ -9180,8 +9183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD64"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9287,7 +9290,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="22"/>
       <c r="F5" s="18" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="G5" s="51"/>
       <c r="H5" s="18"/>
@@ -9382,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>86</v>
@@ -9391,10 +9394,10 @@
         <v>140</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>82</v>
@@ -9442,7 +9445,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>86</v>
@@ -9451,10 +9454,10 @@
         <v>140</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>123</v>
@@ -9502,7 +9505,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>86</v>
@@ -9511,10 +9514,10 @@
         <v>140</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>157</v>
@@ -9562,7 +9565,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>86</v>
@@ -9571,10 +9574,10 @@
         <v>140</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>79</v>
@@ -9622,7 +9625,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>86</v>
@@ -9631,10 +9634,10 @@
         <v>140</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>80</v>
@@ -9682,7 +9685,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>86</v>
@@ -9691,10 +9694,10 @@
         <v>140</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>81</v>
@@ -9742,7 +9745,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>86</v>
@@ -9751,10 +9754,10 @@
         <v>140</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>85</v>
@@ -9802,7 +9805,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>95</v>
@@ -9811,10 +9814,10 @@
         <v>140</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>82</v>
@@ -9862,7 +9865,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>95</v>
@@ -9871,10 +9874,10 @@
         <v>140</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>123</v>
@@ -9922,7 +9925,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>95</v>
@@ -9931,10 +9934,10 @@
         <v>140</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>157</v>
@@ -9982,7 +9985,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>95</v>
@@ -9991,10 +9994,10 @@
         <v>140</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>79</v>
@@ -10042,7 +10045,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>95</v>
@@ -10051,10 +10054,10 @@
         <v>140</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>80</v>
@@ -10102,7 +10105,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>95</v>
@@ -10111,10 +10114,10 @@
         <v>140</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>81</v>
@@ -10162,7 +10165,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>95</v>
@@ -10171,10 +10174,10 @@
         <v>140</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>85</v>
@@ -10222,7 +10225,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>121</v>
@@ -10231,10 +10234,10 @@
         <v>140</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>82</v>
@@ -10282,7 +10285,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>121</v>
@@ -10291,10 +10294,10 @@
         <v>140</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>123</v>
@@ -10342,7 +10345,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>121</v>
@@ -10351,10 +10354,10 @@
         <v>140</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>157</v>
@@ -10402,7 +10405,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>121</v>
@@ -10411,10 +10414,10 @@
         <v>140</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>79</v>
@@ -10462,7 +10465,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>121</v>
@@ -10471,10 +10474,10 @@
         <v>140</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>80</v>
@@ -10522,7 +10525,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>121</v>
@@ -10531,10 +10534,10 @@
         <v>140</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G27" s="58" t="s">
         <v>81</v>
@@ -10582,7 +10585,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>121</v>
@@ -10591,10 +10594,10 @@
         <v>140</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G28" s="58" t="s">
         <v>85</v>
@@ -10642,7 +10645,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>86</v>
@@ -10651,10 +10654,10 @@
         <v>140</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>82</v>
@@ -10702,7 +10705,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>86</v>
@@ -10711,10 +10714,10 @@
         <v>140</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G30" s="58" t="s">
         <v>123</v>
@@ -10762,7 +10765,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>86</v>
@@ -10771,10 +10774,10 @@
         <v>140</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G31" s="55" t="s">
         <v>157</v>
@@ -10822,7 +10825,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>86</v>
@@ -10831,10 +10834,10 @@
         <v>140</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G32" s="55" t="s">
         <v>79</v>
@@ -10882,7 +10885,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>86</v>
@@ -10891,10 +10894,10 @@
         <v>140</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G33" s="55" t="s">
         <v>80</v>
@@ -10942,7 +10945,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>86</v>
@@ -10951,10 +10954,10 @@
         <v>140</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G34" s="55" t="s">
         <v>81</v>
@@ -11002,7 +11005,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>86</v>
@@ -11011,10 +11014,10 @@
         <v>140</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G35" s="55" t="s">
         <v>85</v>
@@ -11062,7 +11065,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>95</v>
@@ -11071,10 +11074,10 @@
         <v>140</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>82</v>
@@ -11122,7 +11125,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>95</v>
@@ -11131,10 +11134,10 @@
         <v>140</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G37" s="55" t="s">
         <v>123</v>
@@ -11182,7 +11185,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>95</v>
@@ -11191,10 +11194,10 @@
         <v>140</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G38" s="55" t="s">
         <v>157</v>
@@ -11242,7 +11245,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>95</v>
@@ -11251,10 +11254,10 @@
         <v>140</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G39" s="55" t="s">
         <v>79</v>
@@ -11302,7 +11305,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>95</v>
@@ -11311,10 +11314,10 @@
         <v>140</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G40" s="55" t="s">
         <v>80</v>
@@ -11362,7 +11365,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>95</v>
@@ -11371,10 +11374,10 @@
         <v>140</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G41" s="55" t="s">
         <v>81</v>
@@ -11422,7 +11425,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>95</v>
@@ -11431,10 +11434,10 @@
         <v>140</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G42" s="55" t="s">
         <v>85</v>
@@ -11482,7 +11485,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>121</v>
@@ -11491,10 +11494,10 @@
         <v>140</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>82</v>
@@ -11542,7 +11545,7 @@
         <v>37</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>121</v>
@@ -11551,10 +11554,10 @@
         <v>140</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G44" s="58" t="s">
         <v>123</v>
@@ -11602,7 +11605,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>121</v>
@@ -11611,10 +11614,10 @@
         <v>140</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G45" s="57" t="s">
         <v>157</v>
@@ -11662,7 +11665,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>121</v>
@@ -11671,10 +11674,10 @@
         <v>140</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G46" s="57" t="s">
         <v>79</v>
@@ -11722,7 +11725,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>121</v>
@@ -11731,10 +11734,10 @@
         <v>140</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G47" s="57" t="s">
         <v>80</v>
@@ -11782,7 +11785,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>121</v>
@@ -11791,10 +11794,10 @@
         <v>140</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G48" s="57" t="s">
         <v>81</v>
@@ -11842,7 +11845,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>121</v>
@@ -11851,10 +11854,10 @@
         <v>140</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G49" s="57" t="s">
         <v>85</v>
@@ -11902,7 +11905,7 @@
         <v>43</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>86</v>
@@ -11911,10 +11914,10 @@
         <v>140</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>82</v>
@@ -11962,7 +11965,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>86</v>
@@ -11971,10 +11974,10 @@
         <v>140</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G51" s="58" t="s">
         <v>123</v>
@@ -12022,7 +12025,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>86</v>
@@ -12031,10 +12034,10 @@
         <v>140</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G52" s="58" t="s">
         <v>157</v>
@@ -12082,7 +12085,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>86</v>
@@ -12091,10 +12094,10 @@
         <v>140</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G53" s="58" t="s">
         <v>79</v>
@@ -12142,7 +12145,7 @@
         <v>47</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>86</v>
@@ -12151,10 +12154,10 @@
         <v>140</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G54" s="58" t="s">
         <v>80</v>
@@ -12202,7 +12205,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>86</v>
@@ -12211,10 +12214,10 @@
         <v>140</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G55" s="58" t="s">
         <v>81</v>
@@ -12262,7 +12265,7 @@
         <v>49</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>86</v>
@@ -12271,10 +12274,10 @@
         <v>140</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G56" s="58" t="s">
         <v>85</v>
@@ -12322,7 +12325,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>95</v>
@@ -12331,10 +12334,10 @@
         <v>140</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>82</v>
@@ -12382,7 +12385,7 @@
         <v>51</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>95</v>
@@ -12391,10 +12394,10 @@
         <v>140</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G58" s="58" t="s">
         <v>123</v>
@@ -12442,7 +12445,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>95</v>
@@ -12451,10 +12454,10 @@
         <v>140</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G59" s="58" t="s">
         <v>157</v>
@@ -12502,7 +12505,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>95</v>
@@ -12511,10 +12514,10 @@
         <v>140</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G60" s="58" t="s">
         <v>79</v>
@@ -12562,7 +12565,7 @@
         <v>54</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>95</v>
@@ -12571,10 +12574,10 @@
         <v>140</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G61" s="58" t="s">
         <v>80</v>
@@ -12622,7 +12625,7 @@
         <v>55</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>95</v>
@@ -12631,10 +12634,10 @@
         <v>140</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G62" s="58" t="s">
         <v>81</v>
@@ -12682,7 +12685,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>95</v>
@@ -12691,10 +12694,10 @@
         <v>140</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G63" s="58" t="s">
         <v>85</v>
@@ -12742,7 +12745,7 @@
         <v>57</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>121</v>
@@ -12751,10 +12754,10 @@
         <v>140</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>82</v>
@@ -12802,7 +12805,7 @@
         <v>58</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>121</v>
@@ -12811,10 +12814,10 @@
         <v>140</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G65" s="58" t="s">
         <v>123</v>
@@ -12862,7 +12865,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C66" s="19" t="s">
         <v>121</v>
@@ -12871,10 +12874,10 @@
         <v>140</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G66" s="58" t="s">
         <v>157</v>
@@ -12922,7 +12925,7 @@
         <v>60</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>121</v>
@@ -12931,10 +12934,10 @@
         <v>140</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G67" s="58" t="s">
         <v>79</v>
@@ -12982,7 +12985,7 @@
         <v>61</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>121</v>
@@ -12991,10 +12994,10 @@
         <v>140</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G68" s="58" t="s">
         <v>80</v>
@@ -13042,7 +13045,7 @@
         <v>62</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C69" s="19" t="s">
         <v>121</v>
@@ -13051,10 +13054,10 @@
         <v>140</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G69" s="58" t="s">
         <v>81</v>
@@ -13102,7 +13105,7 @@
         <v>63</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>121</v>
@@ -13111,10 +13114,10 @@
         <v>140</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G70" s="58" t="s">
         <v>85</v>
@@ -13162,7 +13165,7 @@
         <v>64</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>86</v>
@@ -13171,10 +13174,10 @@
         <v>140</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>82</v>
@@ -13222,7 +13225,7 @@
         <v>65</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>86</v>
@@ -13231,10 +13234,10 @@
         <v>140</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G72" s="58" t="s">
         <v>123</v>
@@ -13282,7 +13285,7 @@
         <v>66</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>86</v>
@@ -13291,10 +13294,10 @@
         <v>140</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G73" s="58" t="s">
         <v>79</v>
@@ -13342,7 +13345,7 @@
         <v>67</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>86</v>
@@ -13351,10 +13354,10 @@
         <v>140</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G74" s="58" t="s">
         <v>80</v>
@@ -13402,7 +13405,7 @@
         <v>68</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>86</v>
@@ -13411,10 +13414,10 @@
         <v>140</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G75" s="58" t="s">
         <v>81</v>
@@ -13462,7 +13465,7 @@
         <v>69</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>86</v>
@@ -13471,10 +13474,10 @@
         <v>140</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G76" s="58" t="s">
         <v>85</v>
@@ -13522,7 +13525,7 @@
         <v>70</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>95</v>
@@ -13531,10 +13534,10 @@
         <v>140</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>82</v>
@@ -13582,7 +13585,7 @@
         <v>71</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C78" s="19" t="s">
         <v>95</v>
@@ -13591,10 +13594,10 @@
         <v>140</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G78" s="58" t="s">
         <v>123</v>
@@ -13642,7 +13645,7 @@
         <v>72</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C79" s="19" t="s">
         <v>95</v>
@@ -13651,10 +13654,10 @@
         <v>140</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G79" s="58" t="s">
         <v>79</v>
@@ -13702,7 +13705,7 @@
         <v>73</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>95</v>
@@ -13711,10 +13714,10 @@
         <v>140</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G80" s="58" t="s">
         <v>80</v>
@@ -13762,7 +13765,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C81" s="19" t="s">
         <v>95</v>
@@ -13771,10 +13774,10 @@
         <v>140</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G81" s="58" t="s">
         <v>81</v>
@@ -13822,7 +13825,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>95</v>
@@ -13831,10 +13834,10 @@
         <v>140</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G82" s="58" t="s">
         <v>85</v>
@@ -13882,7 +13885,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>121</v>
@@ -13891,10 +13894,10 @@
         <v>140</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>82</v>
@@ -13942,7 +13945,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>121</v>
@@ -13951,10 +13954,10 @@
         <v>140</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G84" s="58" t="s">
         <v>123</v>
@@ -14002,7 +14005,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>121</v>
@@ -14011,10 +14014,10 @@
         <v>140</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G85" s="58" t="s">
         <v>79</v>
@@ -14062,7 +14065,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>121</v>
@@ -14071,10 +14074,10 @@
         <v>140</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G86" s="58" t="s">
         <v>80</v>
@@ -14122,7 +14125,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C87" s="19" t="s">
         <v>121</v>
@@ -14131,10 +14134,10 @@
         <v>140</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G87" s="58" t="s">
         <v>81</v>
@@ -14182,7 +14185,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>121</v>
@@ -14191,10 +14194,10 @@
         <v>140</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G88" s="58" t="s">
         <v>85</v>
@@ -14242,7 +14245,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C89" s="19" t="s">
         <v>86</v>
@@ -14251,10 +14254,10 @@
         <v>140</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>82</v>
@@ -14302,7 +14305,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>86</v>
@@ -14311,10 +14314,10 @@
         <v>140</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G90" s="58" t="s">
         <v>123</v>
@@ -14362,7 +14365,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>86</v>
@@ -14371,10 +14374,10 @@
         <v>140</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G91" s="58" t="s">
         <v>79</v>
@@ -14422,7 +14425,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>86</v>
@@ -14431,10 +14434,10 @@
         <v>140</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G92" s="58" t="s">
         <v>80</v>
@@ -14482,7 +14485,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>86</v>
@@ -14491,10 +14494,10 @@
         <v>140</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G93" s="58" t="s">
         <v>85</v>
@@ -14542,7 +14545,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>95</v>
@@ -14551,10 +14554,10 @@
         <v>140</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>82</v>
@@ -14602,7 +14605,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C95" s="19" t="s">
         <v>95</v>
@@ -14611,10 +14614,10 @@
         <v>140</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G95" s="58" t="s">
         <v>123</v>
@@ -14662,7 +14665,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>95</v>
@@ -14671,10 +14674,10 @@
         <v>140</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G96" s="58" t="s">
         <v>79</v>
@@ -14722,7 +14725,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>95</v>
@@ -14731,10 +14734,10 @@
         <v>140</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G97" s="58" t="s">
         <v>80</v>
@@ -14782,7 +14785,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>95</v>
@@ -14791,10 +14794,10 @@
         <v>140</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G98" s="58" t="s">
         <v>85</v>
@@ -14842,7 +14845,7 @@
         <v>92</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>121</v>
@@ -14851,10 +14854,10 @@
         <v>140</v>
       </c>
       <c r="E99" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>82</v>
@@ -14902,7 +14905,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>121</v>
@@ -14911,10 +14914,10 @@
         <v>140</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G100" s="58" t="s">
         <v>123</v>
@@ -14962,7 +14965,7 @@
         <v>94</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C101" s="19" t="s">
         <v>121</v>
@@ -14971,10 +14974,10 @@
         <v>140</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G101" s="58" t="s">
         <v>79</v>
@@ -15022,7 +15025,7 @@
         <v>95</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C102" s="19" t="s">
         <v>121</v>
@@ -15031,10 +15034,10 @@
         <v>140</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G102" s="58" t="s">
         <v>80</v>
@@ -15082,7 +15085,7 @@
         <v>96</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>121</v>
@@ -15091,10 +15094,10 @@
         <v>140</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G103" s="58" t="s">
         <v>85</v>
@@ -15142,7 +15145,7 @@
         <v>97</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C104" s="19" t="s">
         <v>86</v>
@@ -15151,10 +15154,10 @@
         <v>140</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>82</v>
@@ -15202,7 +15205,7 @@
         <v>98</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C105" s="19" t="s">
         <v>86</v>
@@ -15211,10 +15214,10 @@
         <v>140</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G105" s="58" t="s">
         <v>123</v>
@@ -15262,7 +15265,7 @@
         <v>99</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C106" s="19" t="s">
         <v>86</v>
@@ -15271,10 +15274,10 @@
         <v>140</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G106" s="58" t="s">
         <v>79</v>
@@ -15322,7 +15325,7 @@
         <v>100</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C107" s="19" t="s">
         <v>86</v>
@@ -15331,10 +15334,10 @@
         <v>140</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G107" s="58" t="s">
         <v>80</v>
@@ -15382,7 +15385,7 @@
         <v>101</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C108" s="19" t="s">
         <v>86</v>
@@ -15391,10 +15394,10 @@
         <v>140</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G108" s="58" t="s">
         <v>85</v>
@@ -15442,7 +15445,7 @@
         <v>102</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C109" s="19" t="s">
         <v>95</v>
@@ -15451,10 +15454,10 @@
         <v>140</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>82</v>
@@ -15502,7 +15505,7 @@
         <v>103</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>95</v>
@@ -15511,10 +15514,10 @@
         <v>140</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G110" s="58" t="s">
         <v>123</v>
@@ -15562,7 +15565,7 @@
         <v>104</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C111" s="19" t="s">
         <v>95</v>
@@ -15571,10 +15574,10 @@
         <v>140</v>
       </c>
       <c r="E111" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G111" s="58" t="s">
         <v>79</v>
@@ -15622,7 +15625,7 @@
         <v>105</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C112" s="19" t="s">
         <v>95</v>
@@ -15631,10 +15634,10 @@
         <v>140</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G112" s="58" t="s">
         <v>80</v>
@@ -15682,7 +15685,7 @@
         <v>106</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C113" s="19" t="s">
         <v>95</v>
@@ -15691,10 +15694,10 @@
         <v>140</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G113" s="58" t="s">
         <v>85</v>
@@ -15742,7 +15745,7 @@
         <v>107</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C114" s="19" t="s">
         <v>121</v>
@@ -15751,10 +15754,10 @@
         <v>140</v>
       </c>
       <c r="E114" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>82</v>
@@ -15802,7 +15805,7 @@
         <v>108</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C115" s="19" t="s">
         <v>121</v>
@@ -15811,10 +15814,10 @@
         <v>140</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G115" s="58" t="s">
         <v>123</v>
@@ -15862,7 +15865,7 @@
         <v>109</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C116" s="19" t="s">
         <v>121</v>
@@ -15871,10 +15874,10 @@
         <v>140</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G116" s="58" t="s">
         <v>79</v>
@@ -15922,7 +15925,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C117" s="19" t="s">
         <v>121</v>
@@ -15931,10 +15934,10 @@
         <v>140</v>
       </c>
       <c r="E117" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G117" s="58" t="s">
         <v>80</v>
@@ -15982,7 +15985,7 @@
         <v>111</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C118" s="19" t="s">
         <v>121</v>
@@ -15991,10 +15994,10 @@
         <v>140</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G118" s="58" t="s">
         <v>85</v>
@@ -16042,7 +16045,7 @@
         <v>112</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C119" s="19" t="s">
         <v>86</v>
@@ -16051,10 +16054,10 @@
         <v>140</v>
       </c>
       <c r="E119" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>82</v>
@@ -16102,7 +16105,7 @@
         <v>113</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C120" s="19" t="s">
         <v>86</v>
@@ -16111,10 +16114,10 @@
         <v>140</v>
       </c>
       <c r="E120" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G120" s="58" t="s">
         <v>123</v>
@@ -16162,7 +16165,7 @@
         <v>114</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C121" s="19" t="s">
         <v>86</v>
@@ -16171,10 +16174,10 @@
         <v>140</v>
       </c>
       <c r="E121" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G121" s="58" t="s">
         <v>79</v>
@@ -16222,7 +16225,7 @@
         <v>115</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C122" s="19" t="s">
         <v>86</v>
@@ -16231,10 +16234,10 @@
         <v>140</v>
       </c>
       <c r="E122" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G122" s="58" t="s">
         <v>80</v>
@@ -16282,7 +16285,7 @@
         <v>116</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C123" s="19" t="s">
         <v>86</v>
@@ -16291,10 +16294,10 @@
         <v>140</v>
       </c>
       <c r="E123" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G123" s="58" t="s">
         <v>85</v>
@@ -16342,7 +16345,7 @@
         <v>117</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C124" s="19" t="s">
         <v>95</v>
@@ -16351,10 +16354,10 @@
         <v>140</v>
       </c>
       <c r="E124" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>82</v>
@@ -16402,7 +16405,7 @@
         <v>118</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C125" s="19" t="s">
         <v>95</v>
@@ -16411,10 +16414,10 @@
         <v>140</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G125" s="58" t="s">
         <v>123</v>
@@ -16462,7 +16465,7 @@
         <v>119</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C126" s="19" t="s">
         <v>95</v>
@@ -16471,10 +16474,10 @@
         <v>140</v>
       </c>
       <c r="E126" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G126" s="58" t="s">
         <v>79</v>
@@ -16522,7 +16525,7 @@
         <v>120</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C127" s="19" t="s">
         <v>95</v>
@@ -16531,10 +16534,10 @@
         <v>140</v>
       </c>
       <c r="E127" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G127" s="58" t="s">
         <v>80</v>
@@ -16582,7 +16585,7 @@
         <v>121</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C128" s="19" t="s">
         <v>95</v>
@@ -16591,10 +16594,10 @@
         <v>140</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G128" s="58" t="s">
         <v>85</v>
@@ -16642,7 +16645,7 @@
         <v>122</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C129" s="19" t="s">
         <v>121</v>
@@ -16651,10 +16654,10 @@
         <v>140</v>
       </c>
       <c r="E129" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>82</v>
@@ -16702,7 +16705,7 @@
         <v>123</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C130" s="19" t="s">
         <v>121</v>
@@ -16711,10 +16714,10 @@
         <v>140</v>
       </c>
       <c r="E130" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G130" s="58" t="s">
         <v>123</v>
@@ -16762,7 +16765,7 @@
         <v>124</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C131" s="19" t="s">
         <v>121</v>
@@ -16771,10 +16774,10 @@
         <v>140</v>
       </c>
       <c r="E131" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G131" s="58" t="s">
         <v>79</v>
@@ -16822,7 +16825,7 @@
         <v>125</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C132" s="19" t="s">
         <v>121</v>
@@ -16831,10 +16834,10 @@
         <v>140</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G132" s="58" t="s">
         <v>80</v>
@@ -16882,7 +16885,7 @@
         <v>126</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C133" s="19" t="s">
         <v>121</v>
@@ -16891,10 +16894,10 @@
         <v>140</v>
       </c>
       <c r="E133" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G133" s="58" t="s">
         <v>85</v>
@@ -16942,7 +16945,7 @@
         <v>127</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C134" s="19" t="s">
         <v>86</v>
@@ -16951,10 +16954,10 @@
         <v>140</v>
       </c>
       <c r="E134" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F134" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>82</v>
@@ -17002,7 +17005,7 @@
         <v>128</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C135" s="19" t="s">
         <v>86</v>
@@ -17011,10 +17014,10 @@
         <v>140</v>
       </c>
       <c r="E135" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F135" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G135" s="58" t="s">
         <v>123</v>
@@ -17062,7 +17065,7 @@
         <v>129</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C136" s="19" t="s">
         <v>95</v>
@@ -17071,10 +17074,10 @@
         <v>140</v>
       </c>
       <c r="E136" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F136" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>82</v>
@@ -17122,7 +17125,7 @@
         <v>130</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C137" s="19" t="s">
         <v>95</v>
@@ -17131,10 +17134,10 @@
         <v>140</v>
       </c>
       <c r="E137" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G137" s="58" t="s">
         <v>123</v>
@@ -17182,7 +17185,7 @@
         <v>131</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C138" s="19" t="s">
         <v>121</v>
@@ -17191,10 +17194,10 @@
         <v>140</v>
       </c>
       <c r="E138" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>82</v>
@@ -17242,7 +17245,7 @@
         <v>132</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C139" s="19" t="s">
         <v>121</v>
@@ -17251,10 +17254,10 @@
         <v>140</v>
       </c>
       <c r="E139" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G139" s="58" t="s">
         <v>123</v>
@@ -17675,10 +17678,10 @@
         <v>140</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>123</v>
@@ -17699,7 +17702,7 @@
         <v>59</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N8" s="24" t="b">
         <v>0</v>
@@ -17736,10 +17739,10 @@
         <v>140</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>123</v>
@@ -17760,7 +17763,7 @@
         <v>59</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N9" s="24" t="b">
         <v>0</v>
@@ -17797,10 +17800,10 @@
         <v>140</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G10" s="58" t="s">
         <v>123</v>
@@ -17821,7 +17824,7 @@
         <v>59</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N10" s="24" t="b">
         <v>0</v>
@@ -17858,10 +17861,10 @@
         <v>140</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>123</v>
@@ -17882,7 +17885,7 @@
         <v>59</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N11" s="24" t="b">
         <v>0</v>
@@ -17919,10 +17922,10 @@
         <v>140</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>123</v>
@@ -17943,7 +17946,7 @@
         <v>59</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N12" s="24" t="b">
         <v>0</v>
@@ -17980,10 +17983,10 @@
         <v>140</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>123</v>
@@ -18004,7 +18007,7 @@
         <v>59</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N13" s="24" t="b">
         <v>0</v>
@@ -18041,10 +18044,10 @@
         <v>140</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>123</v>
@@ -18065,7 +18068,7 @@
         <v>59</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N14" s="24" t="b">
         <v>0</v>
@@ -18102,10 +18105,10 @@
         <v>140</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>123</v>
@@ -18126,7 +18129,7 @@
         <v>59</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N15" s="24" t="b">
         <v>0</v>
@@ -18163,10 +18166,10 @@
         <v>140</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>123</v>
@@ -18187,7 +18190,7 @@
         <v>59</v>
       </c>
       <c r="M16" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N16" s="24" t="b">
         <v>0</v>
@@ -18224,10 +18227,10 @@
         <v>140</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G17" s="58" t="s">
         <v>123</v>
@@ -18248,7 +18251,7 @@
         <v>59</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N17" s="24" t="b">
         <v>0</v>
@@ -18285,10 +18288,10 @@
         <v>140</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>123</v>
@@ -18309,7 +18312,7 @@
         <v>59</v>
       </c>
       <c r="M18" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N18" s="24" t="b">
         <v>0</v>
@@ -18346,10 +18349,10 @@
         <v>140</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>123</v>
@@ -18370,7 +18373,7 @@
         <v>59</v>
       </c>
       <c r="M19" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N19" s="24" t="b">
         <v>0</v>
@@ -18407,10 +18410,10 @@
         <v>140</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>123</v>
@@ -18431,7 +18434,7 @@
         <v>59</v>
       </c>
       <c r="M20" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N20" s="24" t="b">
         <v>0</v>
@@ -18468,10 +18471,10 @@
         <v>140</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>123</v>
@@ -18492,7 +18495,7 @@
         <v>59</v>
       </c>
       <c r="M21" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N21" s="24" t="b">
         <v>0</v>
@@ -18529,10 +18532,10 @@
         <v>140</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>123</v>
@@ -18553,7 +18556,7 @@
         <v>59</v>
       </c>
       <c r="M22" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N22" s="24" t="b">
         <v>0</v>
@@ -18590,10 +18593,10 @@
         <v>140</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>123</v>
@@ -18614,7 +18617,7 @@
         <v>59</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N23" s="24" t="b">
         <v>0</v>
@@ -18650,10 +18653,10 @@
         <v>140</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>123</v>
@@ -18674,7 +18677,7 @@
         <v>109</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N24" s="24" t="b">
         <v>0</v>
@@ -18710,10 +18713,10 @@
         <v>140</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>123</v>
@@ -18734,7 +18737,7 @@
         <v>110</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N25" s="24" t="b">
         <v>0</v>
@@ -18770,10 +18773,10 @@
         <v>140</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>123</v>
@@ -18794,7 +18797,7 @@
         <v>111</v>
       </c>
       <c r="M26" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N26" s="24" t="b">
         <v>0</v>
@@ -18852,19 +18855,19 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
         <v>105</v>
       </c>
       <c r="C1" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" t="s">
         <v>171</v>
-      </c>
-      <c r="D1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" t="s">
-        <v>173</v>
       </c>
       <c r="G1" t="s">
         <v>118</v>
